--- a/Version2/BugTracker_v2.xlsx
+++ b/Version2/BugTracker_v2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -712,7 +707,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -876,7 +871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -928,7 +923,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1122,7 +1117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,22 +1132,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="1" sqref="F2 A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="4"/>
-    <col min="4" max="4" width="9.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="4"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="4"/>
+    <col min="4" max="4" width="9.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1191,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1324,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1408,7 +1403,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1440,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1460,7 +1455,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1492,7 +1487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1556,7 +1551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1588,7 +1583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="63" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1620,7 +1615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1652,7 +1647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1684,7 +1679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1716,7 +1711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1748,7 +1743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1812,7 +1807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1844,7 +1839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1876,7 +1871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1908,7 +1903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2004,7 +1999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2100,7 +2095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2132,7 +2127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2196,7 +2191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2228,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2260,7 +2255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2292,7 +2287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2324,7 +2319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2388,7 +2383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2420,7 +2415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2484,7 +2479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2516,7 +2511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2548,7 +2543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2580,7 +2575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2612,7 +2607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2644,7 +2639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2676,7 +2671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2708,7 +2703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2740,7 +2735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2772,7 +2767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2836,7 +2831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2932,7 +2927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2964,7 +2959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3028,7 +3023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3060,7 +3055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3124,7 +3119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3156,7 +3151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3188,7 +3183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3220,7 +3215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3252,7 +3247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3284,7 +3279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3316,7 +3311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3348,7 +3343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3380,7 +3375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3412,7 +3407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3476,7 +3471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3508,7 +3503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3540,7 +3535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3572,7 +3567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3604,7 +3599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="62" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3636,7 +3631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3668,7 +3663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3700,7 +3695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3732,7 +3727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3764,7 +3759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3796,7 +3791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3828,7 +3823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3860,7 +3855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3892,7 +3887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3924,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3956,7 +3951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -3988,7 +3983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -4020,7 +4015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -4052,7 +4047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -4084,7 +4079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -4116,7 +4111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -4148,7 +4143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -4180,7 +4175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -4212,7 +4207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4244,7 +4239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -4276,7 +4271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -4308,7 +4303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -4340,7 +4335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -4372,7 +4367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
@@ -4384,7 +4379,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
@@ -4396,7 +4391,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -4408,7 +4403,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -4420,7 +4415,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -4432,7 +4427,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -4444,7 +4439,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -4456,7 +4451,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
@@ -4468,7 +4463,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -4480,7 +4475,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -4492,7 +4487,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -4504,7 +4499,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -4516,7 +4511,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
